--- a/24-25/Invoice 24-25/21 BK021 Mar 24-25 Sample Rubino industries/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/24-25/Invoice 24-25/21 BK021 Mar 24-25 Sample Rubino industries/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\24-25\Invoice 24-25\21 BK021 Mar 24-25 Sample Rubino industries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E4B33-1D2F-415B-8D47-EE0F9202CAA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CE0B91-2888-4B4C-8021-9D43A4C670BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="158">
   <si>
     <t>financial year</t>
   </si>
@@ -602,6 +602,12 @@
 Tel: 07-3323315/3333314
 Alicia Lim :  +60 11-10626673 
 email: account@rubino.com</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Two Hundred and Twenty Five Rupees only</t>
   </si>
 </sst>
 </file>
@@ -1260,6 +1266,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1267,60 +1276,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1342,29 +1353,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1389,24 +1444,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1416,24 +1453,45 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1448,58 +1506,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,6 +1552,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1657350" cy="904875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1FC1C2-3EDA-4613-B96D-8686105C1452}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="7258050"/>
+          <a:ext cx="1657350" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -1581,7 +1630,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3057,10 +3106,10 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="71" t="s">
         <v>155</v>
       </c>
       <c r="C6" s="11"/>
@@ -3089,8 +3138,8 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -3117,8 +3166,8 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3145,8 +3194,8 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -3173,8 +3222,8 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -3201,8 +3250,8 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -31038,8 +31087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31058,30 +31107,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31090,16 +31139,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="72" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="81"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="80" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="72" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="81"/>
-      <c r="J3" s="78"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31108,18 +31157,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="97" t="str">
+      <c r="E4" s="102" t="str">
         <f>'input data'!B3</f>
         <v>BK021/24-25</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="98">
+      <c r="F4" s="77"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="103">
         <f>'input data'!B4</f>
         <v>45728</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31128,16 +31177,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="72" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="81"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="80" t="s">
+      <c r="G5" s="73"/>
+      <c r="H5" s="72" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="81"/>
-      <c r="J5" s="78"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31146,15 +31195,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="92" t="str">
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="107" t="str">
         <f>'input data'!B5</f>
         <v>AD240424008317F</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31163,16 +31212,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="72" t="s">
         <v>48</v>
       </c>
       <c r="F7" s="81"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="80" t="s">
+      <c r="G7" s="73"/>
+      <c r="H7" s="72" t="s">
         <v>49</v>
       </c>
       <c r="I7" s="81"/>
-      <c r="J7" s="78"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31181,16 +31230,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="94" t="s">
+      <c r="F8" s="77"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31199,16 +31248,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="72" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="81"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="80" t="s">
+      <c r="G9" s="73"/>
+      <c r="H9" s="72" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="81"/>
-      <c r="J9" s="78"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31217,65 +31266,65 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="86">
+      <c r="E10" s="95">
         <f>'input data'!B13</f>
         <v>0</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="72"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="100" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="99" t="s">
+      <c r="D11" s="73"/>
+      <c r="E11" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="87" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="101">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="106">
         <f>'input data'!B15</f>
         <v>0</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="90">
+      <c r="F12" s="70"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="110">
         <f>'input data'!B16</f>
         <v>0</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="72"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31284,17 +31333,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="111" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="81"/>
       <c r="G14" s="81"/>
       <c r="H14" s="81"/>
       <c r="I14" s="81"/>
-      <c r="J14" s="78"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="str">
+      <c r="A15" s="112" t="str">
         <f>'input data'!B6</f>
         <v>Rubino Industry Sdn Bhd
 No. 6 &amp; 6A, Jalan Sri Purnama 2/1,
@@ -31305,243 +31354,243 @@
 Alicia Lim :  +60 11-10626673 
 email: account@rubino.com</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="72"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="83"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="72"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="72"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="83"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="72"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="83"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="72"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="75"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="77" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="77" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="108" t="s">
         <v>64</v>
       </c>
       <c r="F21" s="81"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="77" t="s">
+      <c r="G21" s="73"/>
+      <c r="H21" s="108" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="81"/>
-      <c r="J21" s="78"/>
+      <c r="J21" s="73"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="83">
+      <c r="B22" s="83"/>
+      <c r="C22" s="115">
         <f>'input data'!B18</f>
         <v>0</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="84" t="s">
+      <c r="D22" s="83"/>
+      <c r="E22" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="84" t="str">
+      <c r="F22" s="70"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="116" t="str">
         <f>'input data'!B22</f>
         <v>MALAYSIA</v>
       </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="72"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="83"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="75"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="82" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="80" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="72" t="s">
         <v>31</v>
       </c>
       <c r="F24" s="81"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="82" t="s">
+      <c r="G24" s="73"/>
+      <c r="H24" s="114" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="81"/>
-      <c r="J24" s="78"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="94">
+      <c r="A25" s="76"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="74">
         <f>'input data'!B19</f>
         <v>0</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="94">
+      <c r="D25" s="75"/>
+      <c r="E25" s="74">
         <f>'input data'!B20</f>
         <v>0</v>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="94">
+      <c r="F25" s="77"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="74">
         <f>'input data'!B21</f>
         <v>0</v>
       </c>
-      <c r="I25" s="75"/>
-      <c r="J25" s="76"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="75"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="80" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="81"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="108" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="80" t="s">
+      <c r="F26" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="78"/>
+      <c r="G26" s="73"/>
       <c r="H26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="80" t="s">
+      <c r="I26" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="78"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="76"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="26" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
-      <c r="I27" s="94"/>
-      <c r="J27" s="76"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="75"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="107" t="str">
+      <c r="B28" s="88" t="str">
         <f>'input data'!B17</f>
         <v>Quartz Sample (5cm X 5cm)</v>
       </c>
-      <c r="C28" s="88"/>
-      <c r="D28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="28">
         <v>68101990</v>
       </c>
-      <c r="F28" s="102">
+      <c r="F28" s="91">
         <f>'input data'!B25</f>
         <v>15</v>
       </c>
-      <c r="G28" s="89"/>
-      <c r="H28" s="157">
-        <v>0</v>
+      <c r="G28" s="90"/>
+      <c r="H28" s="68">
+        <v>15</v>
       </c>
-      <c r="I28" s="158">
-        <v>0</v>
+      <c r="I28" s="92">
+        <v>225</v>
       </c>
-      <c r="J28" s="159"/>
+      <c r="J28" s="93"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="30"/>
       <c r="I29" s="31"/>
       <c r="J29" s="30"/>
@@ -31559,8 +31608,8 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="69"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="3"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -31576,8 +31625,8 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="69"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="70"/>
       <c r="H32" s="20"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
@@ -31605,13 +31654,15 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="160">
-        <v>0</v>
+      <c r="I34" s="96">
+        <v>225</v>
       </c>
-      <c r="J34" s="161"/>
+      <c r="J34" s="97"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="34" t="s">
+        <v>157</v>
+      </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
@@ -31619,32 +31670,32 @@
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="30"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="163"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="99"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="84" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="81"/>
       <c r="C36" s="81"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="95" t="s">
+      <c r="D36" s="73"/>
+      <c r="E36" s="100" t="s">
         <v>77</v>
       </c>
       <c r="F36" s="81"/>
       <c r="G36" s="81"/>
       <c r="H36" s="81"/>
       <c r="I36" s="81"/>
-      <c r="J36" s="78"/>
+      <c r="J36" s="73"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="105" t="s">
+      <c r="A37" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="72"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="19" t="s">
         <v>79</v>
       </c>
@@ -31655,10 +31706,10 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="72"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -31667,12 +31718,12 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="72"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -31681,10 +31732,10 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="76"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="31" t="s">
         <v>81</v>
       </c>
@@ -32654,27 +32705,30 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A15:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E14:J20"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="I34:J35"/>
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="A1:J2"/>
@@ -32691,37 +32745,35 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="E12:G13"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E14:J20"/>
-    <mergeCell ref="A15:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -32729,7 +32781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -32742,56 +32794,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="100" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="80" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="131" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="78"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="97" t="str">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="102" t="str">
         <f>Inovice!E4</f>
         <v>BK021/24-25</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="98">
+      <c r="H3" s="75"/>
+      <c r="I3" s="103">
         <f>Inovice!H4</f>
         <v>45728</v>
       </c>
-      <c r="J3" s="76"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -32802,12 +32854,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="118" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="81"/>
       <c r="I4" s="81"/>
-      <c r="J4" s="78"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -32818,21 +32870,21 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="20"/>
       <c r="G6" s="24"/>
       <c r="H6" s="32"/>
@@ -32902,7 +32954,7 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="123" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="81"/>
@@ -32918,13 +32970,13 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="126" t="s">
+      <c r="A12" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="4"/>
@@ -32932,11 +32984,11 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="30"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -32944,21 +32996,21 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="123" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="81"/>
       <c r="C14" s="81"/>
       <c r="D14" s="81"/>
       <c r="E14" s="81"/>
-      <c r="F14" s="78"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="str">
+      <c r="A15" s="112" t="str">
         <f>Inovice!A15</f>
         <v>Rubino Industry Sdn Bhd
 No. 6 &amp; 6A, Jalan Sri Purnama 2/1,
@@ -32969,190 +33021,190 @@
 Alicia Lim :  +60 11-10626673 
 email: account@rubino.com</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="72"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="72"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="72"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="133" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="78"/>
-      <c r="I18" s="134" t="s">
+      <c r="H18" s="73"/>
+      <c r="I18" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="78"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="135" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="135" t="str">
+      <c r="H20" s="75"/>
+      <c r="I20" s="129" t="str">
         <f>Inovice!H22</f>
         <v>MALAYSIA</v>
       </c>
-      <c r="J20" s="76"/>
+      <c r="J20" s="75"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="125" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="81"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="121" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="125" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="81"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="122" t="s">
+      <c r="F21" s="73"/>
+      <c r="G21" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="94">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="74">
         <f>Inovice!C22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="123">
+      <c r="E22" s="77"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="127">
         <f>'input data'!B15</f>
         <v>0</v>
       </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="125" t="s">
         <v>101</v>
       </c>
       <c r="B23" s="81"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="121" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="125" t="s">
         <v>102</v>
       </c>
       <c r="E23" s="81"/>
-      <c r="F23" s="78"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="43"/>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="94">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="74">
         <f>Inovice!C25</f>
         <v>0</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="31"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="125" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="81"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="121" t="s">
+      <c r="C25" s="73"/>
+      <c r="D25" s="125" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="81"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="111" t="s">
+      <c r="F25" s="73"/>
+      <c r="G25" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85">
+      <c r="A26" s="117">
         <f>Inovice!E25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="85">
+      <c r="B26" s="70"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="117">
         <f>Inovice!H25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="133">
+      <c r="E26" s="70"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="119">
         <f>'input data'!B16</f>
         <v>0</v>
       </c>
       <c r="H26" s="81"/>
       <c r="I26" s="81"/>
-      <c r="J26" s="78"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
@@ -33170,44 +33222,44 @@
       <c r="A28" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="94" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="49"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="94" t="s">
+      <c r="I28" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="76"/>
+      <c r="J28" s="75"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>1</v>
       </c>
-      <c r="B29" s="107">
+      <c r="B29" s="88">
         <f>Inovice!E28</f>
         <v>68101990</v>
       </c>
-      <c r="C29" s="89"/>
-      <c r="D29" s="127" t="str">
+      <c r="C29" s="90"/>
+      <c r="D29" s="140" t="str">
         <f>Inovice!B28</f>
         <v>Quartz Sample (5cm X 5cm)</v>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="128">
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="141">
         <f>Inovice!F28</f>
         <v>15</v>
       </c>
-      <c r="J29" s="89"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
@@ -33220,11 +33272,11 @@
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
-      <c r="I30" s="129">
+      <c r="I30" s="142">
         <f>SUM(I29:J29)</f>
         <v>15</v>
       </c>
-      <c r="J30" s="89"/>
+      <c r="J30" s="90"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
@@ -33239,17 +33291,17 @@
       <c r="J31" s="35"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="70"/>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="103" t="s">
+      <c r="D32" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="69"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="32" t="s">
         <v>74</v>
       </c>
@@ -33259,19 +33311,19 @@
       <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="86">
+      <c r="A33" s="95">
         <f>Inovice!A31</f>
         <v>0</v>
       </c>
-      <c r="B33" s="69"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="52">
         <f>Inovice!C31</f>
         <v>0</v>
       </c>
-      <c r="D33" s="119" t="s">
+      <c r="D33" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="69"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="52" t="s">
         <v>108</v>
       </c>
@@ -33336,64 +33388,64 @@
       <c r="J37" s="57"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="100" t="s">
         <v>111</v>
       </c>
       <c r="B38" s="81"/>
       <c r="C38" s="81"/>
       <c r="D38" s="81"/>
       <c r="E38" s="81"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="95" t="s">
+      <c r="F38" s="73"/>
+      <c r="G38" s="100" t="s">
         <v>77</v>
       </c>
       <c r="H38" s="81"/>
       <c r="I38" s="81"/>
-      <c r="J38" s="78"/>
+      <c r="J38" s="73"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="139" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="72"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="19"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="112" t="s">
+      <c r="A40" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="114"/>
+      <c r="B40" s="132"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="133"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="115" t="s">
+      <c r="A41" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="118" t="s">
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="76"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="75"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34354,41 +34406,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A40:F40"/>
@@ -34405,6 +34422,41 @@
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -34435,7 +34487,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="58"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="143" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="81"/>
@@ -34446,45 +34498,45 @@
       <c r="H1" s="81"/>
       <c r="I1" s="81"/>
       <c r="J1" s="81"/>
-      <c r="K1" s="78"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
+      <c r="K1" s="73"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="58"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="72"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="58"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="146" t="s">
         <v>116</v>
       </c>
       <c r="C4" s="81"/>
@@ -34495,37 +34547,37 @@
       <c r="H4" s="81"/>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
-      <c r="K4" s="78"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="147" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="72"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="52"/>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -34542,18 +34594,18 @@
     </row>
     <row r="8" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
-      <c r="B8" s="152" t="s">
+      <c r="B8" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="72"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -34632,14 +34684,14 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -34647,14 +34699,14 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="63"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -34662,12 +34714,12 @@
     </row>
     <row r="16" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="63"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -34703,117 +34755,117 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
-      <c r="B19" s="143" t="s">
+      <c r="B19" s="149" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="99" t="s">
+      <c r="C19" s="90"/>
+      <c r="D19" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="99" t="s">
+      <c r="E19" s="90"/>
+      <c r="F19" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="99" t="s">
+      <c r="G19" s="90"/>
+      <c r="H19" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="89"/>
-      <c r="J19" s="99" t="s">
+      <c r="I19" s="90"/>
+      <c r="J19" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="89"/>
+      <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="149">
+      <c r="C20" s="90"/>
+      <c r="D20" s="152">
         <v>68029310</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="99">
+      <c r="E20" s="90"/>
+      <c r="F20" s="104">
         <v>95.95</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="99">
+      <c r="G20" s="90"/>
+      <c r="H20" s="104">
         <v>4849</v>
       </c>
-      <c r="I20" s="89"/>
-      <c r="J20" s="150">
+      <c r="I20" s="90"/>
+      <c r="J20" s="153">
         <f>F20*H20</f>
         <v>465261.55</v>
       </c>
-      <c r="K20" s="89"/>
+      <c r="K20" s="90"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="145" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147">
+      <c r="I21" s="157"/>
+      <c r="J21" s="150">
         <f>J20*0.001</f>
         <v>465.26155</v>
       </c>
-      <c r="K21" s="148"/>
+      <c r="K21" s="151"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="33"/>
       <c r="G22" s="64"/>
-      <c r="H22" s="137" t="s">
+      <c r="H22" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="138"/>
-      <c r="J22" s="139">
+      <c r="I22" s="160"/>
+      <c r="J22" s="161">
         <f>SUM(J20:K21)</f>
         <v>465726.81154999998</v>
       </c>
-      <c r="K22" s="140"/>
+      <c r="K22" s="162"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="52"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="72"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="83"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
-      <c r="B24" s="143" t="s">
+      <c r="B24" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="88"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="47"/>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="136">
+      <c r="J24" s="158">
         <f>J22</f>
         <v>465726.81154999998</v>
       </c>
-      <c r="K24" s="89"/>
+      <c r="K24" s="90"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -34830,10 +34882,10 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65"/>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -34986,14 +35038,14 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="66"/>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -35001,14 +35053,14 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="66"/>
-      <c r="B37" s="132" t="s">
+      <c r="B37" s="121" t="s">
         <v>148</v>
       </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -36044,11 +36096,26 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B1:K3"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B14:G14"/>
@@ -36058,26 +36125,11 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B1:K3"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
